--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>44599</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44777</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45421.53583333334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45891.55418981481</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45664.45395833333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44888</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45238.63822916667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45693.47141203703</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45898.44075231482</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44369</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45947.38847222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45681</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>45723.36914351852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>45707.57879629629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45602</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45723.49467592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>45187</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44690</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45905.35103009259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>45477.60511574074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>44791</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45819</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>45954.42666666667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45733</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44903.44127314815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45267.39979166666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44776</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44267</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>44529</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>45149.57418981481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>45800.56177083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45229</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45894.33137731482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>45905.44513888889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45905.32633101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45883</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45328</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44599</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45546.6384375</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45932.62390046296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45555.42803240741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44946</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>45880.66829861111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>45719.56197916667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>45302</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>44622.45375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>46058.60726851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45425.47636574074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>45601.67776620371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>45555.54835648148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45723.63261574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44915</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45684.6628587963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>45615</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>44755</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>44406</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>44259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44285</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44675</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44864</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44536</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44600.72219907407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>44824.88344907408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44795</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44799.66334490741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>44856</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>44243</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>44438</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44249</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44376</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44369</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44249</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>44578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44249</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>44601</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44601</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44239</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44426</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44362</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>44551</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>44357</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44525.84820601852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44574</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44455.4068287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>44462</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44588</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>44574</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>44889.57587962963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44258</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44627</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44503</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44525</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44315</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44314</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>44503</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>44502</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44551</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44874</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44581</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44665</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44833.56607638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44859</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44672.98665509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44735</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44455</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44462</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44782.5928587963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44368.99104166667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44257</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44314</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44460.97055555556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>44252</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44859</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44678.86717592592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>44855</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44887.488125</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44860</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>44362</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>44246</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44272</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44753</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44844</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44305</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44781</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44434</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44541</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44564.46180555555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44313.50966435186</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44469</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>44294.74578703703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44595.73182870371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44508</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44816</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44656.51680555556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44264</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44627</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44587</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44434.64474537037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44820.58339120371</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44249</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44552</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44588.61754629629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44879.75467592593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44257</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44875.96684027778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44743</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44368</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>44368.96609953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>44831</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44369</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>44819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44272</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44581</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44630.64725694444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44469</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44476</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44804</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44368</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44369</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44365.70483796296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44601</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44438</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44742</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44462</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44253</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44476</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>44600</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44635.71011574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44425.69079861111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44412</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44697.38225694445</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44468.75822916667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>44533</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44250</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44678</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44238</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44249</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>44564.47854166666</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44642</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44246</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44704.93234953703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44659.55756944444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44656</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>45258</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>45103</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>45293</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>44362</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44866</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44898</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45009.38880787037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44467.94783564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44368</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44369.24979166667</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44966.74954861111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44677</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44802</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44476</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44595</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44897.571875</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45063</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44672.99238425926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44918.42355324074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>45097</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45735.29673611111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>45086.43366898148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>45260.37900462963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>45021</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>45330</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>45706.64918981482</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>45428.48278935185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44973.5909375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>45107</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>45770.45534722223</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>45567</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45727.61766203704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>45293.64920138889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45428.4608912037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>45206</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>45705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>45555.39886574074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45623.659375</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>45560</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45749.42486111111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         <v>45642.36315972222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45554.27943287037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45740.56240740741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45095</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44960.61972222223</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44914</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44993.61875</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45728.42060185185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45629.40020833333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44778.47692129629</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>45357.58004629629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>45740.35782407408</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45688.46208333333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45720.37665509259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>45593.49458333333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>45084</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45693.47490740741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45253.57049768518</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45233</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45566</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45566</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45441.59644675926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44861</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>45604.48474537037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>45664.4512962963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44900.723125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>45677.65697916667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45095</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44942.70369212963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45702.36035879629</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44383</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>45103.51917824074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44817</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45316.62950231481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>45798</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>45259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>45680.37934027778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45800</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>45096.42487268519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>45800.57334490741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45623.6296875</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45800.58203703703</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>45800</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45572.67354166666</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44508</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44880</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45264.60973379629</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>45681</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>44918.41450231482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>45805.86400462963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45805.8593287037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44974.72851851852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45621.58040509259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45810.67283564815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45888.59415509259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>45008</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45593.48603009259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45719.49388888889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>45720.36722222222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45888.3796875</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45888.44862268519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45891.55048611111</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>45707</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>45812.40525462963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45593.48171296297</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44265</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45890.84398148148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>45812.63094907408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>45147.46668981481</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45740.48041666667</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45812.47408564815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
         <v>45040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45812.3731712963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45894.64597222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>45817.41699074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>45817.44313657407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>45894.34081018518</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>45710</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>45894.68724537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>45554.31143518518</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44897.4424537037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>45895.67457175926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>45337</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>45817.46142361111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44501</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>45560</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>45894.41927083334</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>45897</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45896.45008101852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45898.54694444445</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>45898.56473379629</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>45898.57550925926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44958.93928240741</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45274.65848379629</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45639.4240162037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45744</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45898.56826388889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45819.37645833333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45819.38228009259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45819.47800925926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44816.75416666667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45820.64690972222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45820.66185185185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>45902.63649305556</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>45903.62509259259</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45903.60679398148</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>45903.59841435185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44490.22488425926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44431</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45415.83293981481</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45903.60240740741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45328.44785879629</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45902.62799768519</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>45903.59527777778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45820.47420138889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45905.32957175926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45905.47065972222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45905.45561342593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>45904.62306712963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>45095</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44950</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45905.33390046296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45905.42600694444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44949.59946759259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45904.58920138889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>45086</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44315</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44860</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>45456.42511574074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>45824.65921296296</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>45908.56493055556</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>45744.38512731482</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>45257.45836805556</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>45824.6362037037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>45824.68121527778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45257.48733796296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>45824.64903935185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45825.65684027778</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45520.56111111111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45103.91359953704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45915.37070601852</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45740.3552199074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>45636.85606481481</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>45826.61688657408</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>45178</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>45058</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45915.38060185185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45002</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28174,7 +28174,7 @@
         <v>44503.48954861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>45125.57719907408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>45831</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>45421.52635416666</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45541.55064814815</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>45257</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45206</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45918.38171296296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45020.87799768519</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45831</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45041</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44516</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44964.6525925926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44607.28710648148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>45918.37513888889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>45463.79559027778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>45919.83229166667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44993.89005787037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45832.67672453704</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45167</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44767.83041666666</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45924.61219907407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44930</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44957.84447916667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44662</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45463.79037037037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45084.81885416667</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>44732</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29872,7 +29872,7 @@
         <v>45601.78827546296</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29929,7 +29929,7 @@
         <v>45929</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         <v>44914.75953703704</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>45929</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44536</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30162,7 +30162,7 @@
         <v>45918.38497685185</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30219,7 +30219,7 @@
         <v>45631.68104166666</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>45624.58550925926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30333,7 +30333,7 @@
         <v>44734</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30390,7 +30390,7 @@
         <v>45929</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45442</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30504,7 +30504,7 @@
         <v>45835.61672453704</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>45931.39234953704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>45723.47864583333</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>45681.56399305556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44887</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45615</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44252</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>44614</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>45932.68950231482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45468.57454861111</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>45839</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44267</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>45838.66701388889</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44833</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45932.67384259259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>45719.63878472222</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45935.78858796296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45846</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>45604.47024305556</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>45935.81170138889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>45935.79518518518</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45840.56216435185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31967,7 +31967,7 @@
         <v>44817</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>45840.35300925926</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>45840.37001157407</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>45565.32090277778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32210,7 +32210,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32272,7 +32272,7 @@
         <v>44980.33758101852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32329,7 +32329,7 @@
         <v>45118</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>45845</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>45467.48385416667</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>45845.59033564815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44735.48800925926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>45600</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>45944</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>45229.61754629629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>45845.6499537037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44900.72767361111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>45846.37765046296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33043,7 +33043,7 @@
         <v>45103.52680555556</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33100,7 +33100,7 @@
         <v>45082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45846.38990740741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>45343.57483796297</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45082.57385416667</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>45299.38380787037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>45006.8075925926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>45776.7610300926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33519,7 +33519,7 @@
         <v>45379</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33576,7 +33576,7 @@
         <v>45854.89873842592</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33633,7 +33633,7 @@
         <v>45854.89011574074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33690,7 +33690,7 @@
         <v>44840</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         <v>45853.96457175926</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
         <v>45853.9731712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>45853.97888888889</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45853.98606481482</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45040</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45855.89788194445</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>45951.48149305556</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44249</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34218,7 +34218,7 @@
         <v>45855.92417824074</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34275,7 +34275,7 @@
         <v>45523.54790509259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34332,7 +34332,7 @@
         <v>45075.71163194445</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         <v>45617.65668981482</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34451,7 +34451,7 @@
         <v>45950.6440625</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34513,7 +34513,7 @@
         <v>45762.41467592592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45950.82328703703</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>45800</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44725.56457175926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45082.66013888889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>45863</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>45055</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>45688.46846064815</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45250.57002314815</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>45250.59774305556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>45831</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>45952.61621527778</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35232,7 +35232,7 @@
         <v>45952.42783564814</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35294,7 +35294,7 @@
         <v>45709.57898148148</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45952.58421296296</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45749.3371875</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35480,7 +35480,7 @@
         <v>45446.48325231481</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
         <v>45133.57666666667</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45681.64767361111</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>45957.42334490741</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44903.69664351852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45870.4994212963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45955.44307870371</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45548.58607638889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45957.36806712963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>45955.43375</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>45267.45017361111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45922.66182870371</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45008.59934027777</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>45820.62386574074</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36318,7 +36318,7 @@
         <v>44473</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>45870.50287037037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>45344</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>45362</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44634</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36613,7 +36613,7 @@
         <v>45252.50694444445</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36670,7 +36670,7 @@
         <v>45209.00003472222</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>45209</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>45709.58696759259</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>44434</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>45698.48292824074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36970,7 +36970,7 @@
         <v>44433</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         <v>45566.53284722222</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37089,7 +37089,7 @@
         <v>44664</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>45959.48362268518</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44946</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37270,7 +37270,7 @@
         <v>45210</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37332,7 +37332,7 @@
         <v>44944.42813657408</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>45660.58243055556</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>45880.53909722222</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>45009</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37580,7 +37580,7 @@
         <v>45880.65869212963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45880.55628472222</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45247.62015046296</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45960</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45964.44224537037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45881.59574074074</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38056,7 +38056,7 @@
         <v>45320.70833333334</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>44419</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>45966.83594907408</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>44613.45770833334</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45735.29822916666</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>45523.55290509259</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44375</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38480,7 +38480,7 @@
         <v>45883.55503472222</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>45883.64872685185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44767.83413194444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>44964.43262731482</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>44759.65983796296</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>45969.36766203704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>45883</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>45258</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>45971.48018518519</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>44617.43332175926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45586.55983796297</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>44315</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>45644.94405092593</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>45883.35074074074</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>45883.35534722222</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39370,7 +39370,7 @@
         <v>45042</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44937.78541666667</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>45621.5675462963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>45709.44688657407</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>45975.24901620371</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>45975.22857638889</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44774</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>45973.8149537037</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44550.79950231482</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44993.91690972223</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>45095</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>45884.32354166666</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>45855.65826388889</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44564.68190972223</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>45594.30484953704</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40255,7 +40255,7 @@
         <v>45978.73516203704</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40312,7 +40312,7 @@
         <v>45607.76746527778</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40369,7 +40369,7 @@
         <v>45607.77384259259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40426,7 +40426,7 @@
         <v>45609.64965277778</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40488,7 +40488,7 @@
         <v>45665.41304398148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40545,7 +40545,7 @@
         <v>45551.56912037037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40602,7 +40602,7 @@
         <v>44774</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40664,7 +40664,7 @@
         <v>45754.66113425926</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40726,7 +40726,7 @@
         <v>45744.38790509259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40788,7 +40788,7 @@
         <v>45979.77318287037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40845,7 +40845,7 @@
         <v>45980.27319444445</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40902,7 +40902,7 @@
         <v>45980.19660879629</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40959,7 +40959,7 @@
         <v>45013.44790509259</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>45980.2784375</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45980.19018518519</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45688.46606481481</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41197,7 +41197,7 @@
         <v>45428</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41254,7 +41254,7 @@
         <v>45983.49833333334</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41311,7 +41311,7 @@
         <v>45983.50333333333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41368,7 +41368,7 @@
         <v>45983.52783564815</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41425,7 +41425,7 @@
         <v>45744.33431712963</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41487,7 +41487,7 @@
         <v>45604.50295138889</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>45983.50916666666</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>45983.5328125</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>45985</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>46029.67429398148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44420</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>46029.71232638889</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>45986</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>45077</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>45002.7171875</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>46029.59096064815</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42129,7 +42129,7 @@
         <v>45068.539375</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42191,7 +42191,7 @@
         <v>44867.47490740741</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>45754.46591435185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42305,7 +42305,7 @@
         <v>44981</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42367,7 +42367,7 @@
         <v>45986</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44886.42974537037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>45636.85886574074</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>46031.30131944444</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>46031.31020833334</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42662,7 +42662,7 @@
         <v>46030.59618055556</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>45698.80957175926</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         <v>45728.36512731481</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45280</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45210</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42972,7 +42972,7 @@
         <v>45706.64829861111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         <v>45631.72401620371</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43086,7 +43086,7 @@
         <v>45225.92840277778</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43143,7 +43143,7 @@
         <v>46030.67668981481</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43205,7 +43205,7 @@
         <v>45604.49379629629</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43267,7 +43267,7 @@
         <v>44987</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43324,7 +43324,7 @@
         <v>45082</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>45082.65296296297</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45566.32579861111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43510,7 +43510,7 @@
         <v>45177</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43567,7 +43567,7 @@
         <v>44995</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43629,7 +43629,7 @@
         <v>46034.43657407408</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
         <v>46034.42305555556</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43753,7 +43753,7 @@
         <v>46034.3640625</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45147</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>44966.73841435185</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>46036.45961805555</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>45230</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>45040</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>45744.48476851852</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>46036.47032407407</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44876</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>45727.40373842593</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44348,7 +44348,7 @@
         <v>45179.86133101852</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>45179</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>45709.38167824074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45309.56436342592</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45309.58428240741</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45309.60451388889</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>44915.58520833333</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>44949.5928587963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45700.3816087963</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44881,7 +44881,7 @@
         <v>45323.61266203703</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44943,7 +44943,7 @@
         <v>45996.51731481482</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45000,7 +45000,7 @@
         <v>46040.41307870371</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45057,7 +45057,7 @@
         <v>45013.45861111111</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45119,7 +45119,7 @@
         <v>44981</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45181,7 +45181,7 @@
         <v>46040.39981481482</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45238,7 +45238,7 @@
         <v>44930</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>45754.63559027778</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45362,7 +45362,7 @@
         <v>45232</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45086.56109953704</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45481,7 +45481,7 @@
         <v>45042.48407407408</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45538,7 +45538,7 @@
         <v>45042.60699074074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44939</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45652,7 +45652,7 @@
         <v>45607.76170138889</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45709,7 +45709,7 @@
         <v>44732</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45425</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>46000.61194444444</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45177</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45947,7 +45947,7 @@
         <v>45302.47346064815</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45678.64803240741</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46071,7 +46071,7 @@
         <v>45622.59552083333</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>46002.35668981481</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46190,7 +46190,7 @@
         <v>46002</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46247,7 +46247,7 @@
         <v>46044.76925925926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46304,7 +46304,7 @@
         <v>46003</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46361,7 +46361,7 @@
         <v>45237</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46423,7 +46423,7 @@
         <v>46043.90125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>44642.39262731482</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         <v>46002.49240740741</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46604,7 +46604,7 @@
         <v>46043.92414351852</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>46002.37537037037</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45770.59953703704</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45770.60439814815</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>46002.56351851852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46904,7 +46904,7 @@
         <v>45456</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44749</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47023,7 +47023,7 @@
         <v>45082.64861111111</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>45082.66623842593</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45167</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>46048.63337962963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>44930</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         <v>46048.64240740741</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>44782</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>46049.64528935185</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>46006.59943287037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47556,7 +47556,7 @@
         <v>46048.6265162037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>46006.5815625</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>46006.46712962963</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47742,7 +47742,7 @@
         <v>45646.4853125</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47799,7 +47799,7 @@
         <v>45181.79957175926</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47856,7 +47856,7 @@
         <v>45225.94203703704</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47913,7 +47913,7 @@
         <v>44425</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47970,7 +47970,7 @@
         <v>44754.60368055556</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48027,7 +48027,7 @@
         <v>45421.53177083333</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48089,7 +48089,7 @@
         <v>45551.63465277778</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         <v>46050.38045138889</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>45530.94261574074</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>46050.54965277778</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48327,7 +48327,7 @@
         <v>44986</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48384,7 +48384,7 @@
         <v>44770.56407407407</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48441,7 +48441,7 @@
         <v>45566.5353125</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48503,7 +48503,7 @@
         <v>46055.47086805556</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45301</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48627,7 +48627,7 @@
         <v>45302.48125</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48689,7 +48689,7 @@
         <v>45601.54071759259</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45712.48190972222</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>46052.47861111111</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48865,7 +48865,7 @@
         <v>45698.46657407407</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48927,7 +48927,7 @@
         <v>45370</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48989,7 +48989,7 @@
         <v>44678</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         <v>45853</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49108,7 +49108,7 @@
         <v>44637</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49165,7 +49165,7 @@
         <v>46049</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49222,7 +49222,7 @@
         <v>45279.46747685185</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49284,7 +49284,7 @@
         <v>45609.65366898148</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45070</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>44973</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49470,7 +49470,7 @@
         <v>44891</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49527,7 +49527,7 @@
         <v>45616.28719907408</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49584,7 +49584,7 @@
         <v>46058.61957175926</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49646,7 +49646,7 @@
         <v>46058.61012731482</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49708,7 +49708,7 @@
         <v>46058.61364583333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49770,7 +49770,7 @@
         <v>46058.59472222222</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49832,7 +49832,7 @@
         <v>46058.49981481482</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49894,7 +49894,7 @@
         <v>44949.55903935185</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49951,7 +49951,7 @@
         <v>44368</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50008,7 +50008,7 @@
         <v>45680.36810185185</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>44966.74208333333</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45692.54231481482</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44953</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50251,7 +50251,7 @@
         <v>44823.31814814815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50308,7 +50308,7 @@
         <v>45202.50096064815</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50365,7 +50365,7 @@
         <v>45593.66155092593</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50427,7 +50427,7 @@
         <v>45379.54880787037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50484,7 +50484,7 @@
         <v>45428.45214120371</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         <v>44817</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50608,7 +50608,7 @@
         <v>45174</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50670,7 +50670,7 @@
         <v>45770.46763888889</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50727,7 +50727,7 @@
         <v>45236.37188657407</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50789,7 +50789,7 @@
         <v>45236.37878472222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         <v>45357.56899305555</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50908,7 +50908,7 @@
         <v>45660.57175925926</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50970,7 +50970,7 @@
         <v>45243.44707175926</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45022.59966435185</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51094,7 +51094,7 @@
         <v>44816.75733796296</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51151,7 +51151,7 @@
         <v>45314</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51208,7 +51208,7 @@
         <v>45631.69237268518</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51265,7 +51265,7 @@
         <v>44820.59762731481</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51322,7 +51322,7 @@
         <v>45560</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51384,7 +51384,7 @@
         <v>45535</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45250</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>45197.3700462963</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>44966</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>44806</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>45113.7019212963</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         <v>44964.5900462963</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45723.48126157407</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51865,7 +51865,7 @@
         <v>45420.63292824074</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51922,7 +51922,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51984,7 +51984,7 @@
         <v>45775.6037037037</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52041,7 +52041,7 @@
         <v>45616.27108796296</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52098,7 +52098,7 @@
         <v>45258</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52155,7 +52155,7 @@
         <v>44865</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>44953</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45179</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52326,7 +52326,7 @@
         <v>45617.58458333334</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>44879.75650462963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45713.4383912037</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         <v>45735.67384259259</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44862</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52631,7 +52631,7 @@
         <v>45560</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>44887</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52750,7 +52750,7 @@
         <v>44887</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45235.45121527778</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45086</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52926,7 +52926,7 @@
         <v>45426.26847222223</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44616</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>45322.49793981481</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53107,7 +53107,7 @@
         <v>45740.48484953704</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44949</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53221,7 +53221,7 @@
         <v>44995</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44813</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>45142.55728009259</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53402,7 +53402,7 @@
         <v>45715.74398148148</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53459,7 +53459,7 @@
         <v>44653.50954861111</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53516,7 +53516,7 @@
         <v>45560</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>45719.49042824074</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53635,7 +53635,7 @@
         <v>45645.56427083333</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53697,7 +53697,7 @@
         <v>45593.60833333333</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53759,7 +53759,7 @@
         <v>44987.51744212963</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53816,7 +53816,7 @@
         <v>44236</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53873,7 +53873,7 @@
         <v>45555.45396990741</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>45184.53783564815</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>45639.42065972222</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54054,7 +54054,7 @@
         <v>45314</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54111,7 +54111,7 @@
         <v>45447.58180555556</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54173,7 +54173,7 @@
         <v>45447</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         <v>44729</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54292,7 +54292,7 @@
         <v>44844</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54349,7 +54349,7 @@
         <v>44973.41844907407</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54411,7 +54411,7 @@
         <v>45076</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54473,7 +54473,7 @@
         <v>45095</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54530,7 +54530,7 @@
         <v>45639.38752314815</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54592,7 +54592,7 @@
         <v>45070.69009259259</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54654,7 +54654,7 @@
         <v>44526.39090277778</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54711,7 +54711,7 @@
         <v>44922.43804398148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54773,7 +54773,7 @@
         <v>44795</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45260</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54892,7 +54892,7 @@
         <v>44491</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54949,7 +54949,7 @@
         <v>45041</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55011,7 +55011,7 @@
         <v>45257</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55068,7 +55068,7 @@
         <v>44871</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         <v>45391.43108796296</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55182,7 +55182,7 @@
         <v>45692</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55244,7 +55244,7 @@
         <v>45070.58025462963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55306,7 +55306,7 @@
         <v>45202</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55363,7 +55363,7 @@
         <v>44966</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45210</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55487,7 +55487,7 @@
         <v>45323.56947916667</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55549,7 +55549,7 @@
         <v>45341</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55611,7 +55611,7 @@
         <v>44550.79950231482</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55668,7 +55668,7 @@
         <v>45566.43896990741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55730,7 +55730,7 @@
         <v>45566.44668981482</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55792,7 +55792,7 @@
         <v>44476.24972222222</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55849,7 +55849,7 @@
         <v>45441.57834490741</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         <v>45374.71145833333</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55968,7 +55968,7 @@
         <v>45391.42537037037</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56025,7 +56025,7 @@
         <v>44431</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56082,7 +56082,7 @@
         <v>44981</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56144,7 +56144,7 @@
         <v>44679</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56206,7 +56206,7 @@
         <v>45293</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56263,7 +56263,7 @@
         <v>45554.69748842593</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56320,7 +56320,7 @@
         <v>45692.55859953703</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56382,7 +56382,7 @@
         <v>45214</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56439,7 +56439,7 @@
         <v>45110</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>45660.58204861111</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>45735.6669212963</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>45516.5593287037</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44966</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>45078</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56801,7 +56801,7 @@
         <v>45113.58054398148</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56858,7 +56858,7 @@
         <v>45191</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56915,7 +56915,7 @@
         <v>45763.32456018519</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56972,7 +56972,7 @@
         <v>45639.34571759259</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57034,7 +57034,7 @@
         <v>44551</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57091,7 +57091,7 @@
         <v>44833</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44890</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57210,7 +57210,7 @@
         <v>45103.52126157407</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57267,7 +57267,7 @@
         <v>45618.69439814815</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57324,7 +57324,7 @@
         <v>45639.42581018519</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57386,7 +57386,7 @@
         <v>45299</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57443,7 +57443,7 @@
         <v>45301</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57505,7 +57505,7 @@
         <v>45562.40121527778</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57567,7 +57567,7 @@
         <v>44714</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57624,7 +57624,7 @@
         <v>44992.49708333334</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57686,7 +57686,7 @@
         <v>45740.47725694445</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57743,7 +57743,7 @@
         <v>45687.45034722222</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>45705.55550925926</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>45705.55886574074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44622.47993055556</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>45086.56525462963</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -58043,7 +58043,7 @@
         <v>45232.79605324074</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44887</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>45422</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44622.45858796296</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>45191</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58333,7 +58333,7 @@
         <v>44595</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58390,7 +58390,7 @@
         <v>45516.53788194444</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58447,7 +58447,7 @@
         <v>44589</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58504,7 +58504,7 @@
         <v>45664.45697916667</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58566,7 +58566,7 @@
         <v>45609.65891203703</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>45308.87994212963</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58685,7 +58685,7 @@
         <v>44922.47258101852</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>45615.33805555556</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>45149</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         <v>45572.48486111111</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58928,7 +58928,7 @@
         <v>45560.60784722222</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45762.53134259259</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45762</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>44817.92298611111</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>44431</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -59218,7 +59218,7 @@
         <v>45149</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         <v>45622.4261574074</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59332,7 +59332,7 @@
         <v>45622.42899305555</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59389,7 +59389,7 @@
         <v>44250</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59451,7 +59451,7 @@
         <v>45447</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59513,7 +59513,7 @@
         <v>45554.2862037037</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59570,7 +59570,7 @@
         <v>45639.34060185185</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59632,7 +59632,7 @@
         <v>45639.34267361111</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59694,7 +59694,7 @@
         <v>45095</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59751,7 +59751,7 @@
         <v>45593.50768518518</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59813,7 +59813,7 @@
         <v>45315.48575231482</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59875,7 +59875,7 @@
         <v>45275.41934027777</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59932,7 +59932,7 @@
         <v>44564</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59989,7 +59989,7 @@
         <v>45744.3828125</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -60051,7 +60051,7 @@
         <v>45407.04653935185</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -60108,7 +60108,7 @@
         <v>45071.47526620371</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -60170,7 +60170,7 @@
         <v>44448</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -60227,7 +60227,7 @@
         <v>45257.43741898148</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -60289,7 +60289,7 @@
         <v>45257</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60346,7 +60346,7 @@
         <v>45770.46248842592</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60403,7 +60403,7 @@
         <v>45566</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60465,7 +60465,7 @@
         <v>45777</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45566</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45566</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60646,7 +60646,7 @@
         <v>45735.69887731481</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60708,7 +60708,7 @@
         <v>45736.38344907408</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60770,7 +60770,7 @@
         <v>45783.564375</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60832,7 +60832,7 @@
         <v>45642.82921296296</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45530.92288194445</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         <v>45530.93302083333</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         <v>45371</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -61065,7 +61065,7 @@
         <v>45727.27097222222</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61122,7 +61122,7 @@
         <v>45267</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -61184,7 +61184,7 @@
         <v>45792.37668981482</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -61246,7 +61246,7 @@
         <v>45797.5658912037</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -61303,7 +61303,7 @@
         <v>45797.60138888889</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -61365,7 +61365,7 @@
         <v>45797</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61427,7 +61427,7 @@
         <v>45796.45342592592</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61489,7 +61489,7 @@
         <v>45797.5184375</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61546,7 +61546,7 @@
         <v>45796.4444212963</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>44599</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44777</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45421.53583333334</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45891.55418981481</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45664.45395833333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44888</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45238.63822916667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45693.47141203703</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45898.44075231482</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44369</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45947.38847222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45681</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>45723.36914351852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>45707.57879629629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45602</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45723.49467592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>45187</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44690</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45905.35103009259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>45477.60511574074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>44791</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45819</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>45954.42666666667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45733</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44903.44127314815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45267.39979166666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44776</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44267</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>44529</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45082</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>45149.57418981481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>45800.56177083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45229</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45894.33137731482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>45905.44513888889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45905.32633101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45883</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45328</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44599</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45546.6384375</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45932.62390046296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45555.42803240741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44946</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>45880.66829861111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>45719.56197916667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>45302</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>44622.45375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>46058.60726851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45425.47636574074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>45601.67776620371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>45555.54835648148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45723.63261574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44915</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45684.6628587963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>45615</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>44755</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>44406</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>44259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44285</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44675</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44864</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44536</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44600.72219907407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>44824.88344907408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44420</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44795</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44799.66334490741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>44856</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>44243</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>44438</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44249</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44376</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44369</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44249</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>44578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44249</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44675</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>44601</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44601</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44239</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44426</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44362</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>44551</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>44357</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44525.84820601852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44574</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44455.4068287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44455</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>44462</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44588</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>44574</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>44889.57587962963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44258</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44627</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44503</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44525</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44315</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44315</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44314</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>44503</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>44502</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44551</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44874</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44581</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44665</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44833.56607638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44859</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44672.98665509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44735</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44455</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44462</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44782.5928587963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44368.99104166667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44257</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44314</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44460.97055555556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>44252</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44859</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44678.86717592592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>44855</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44887.488125</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44860</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>44362</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>44246</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44272</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44753</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44844</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44305</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44781</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44434</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44541</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44564.46180555555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44313.50966435186</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44469</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>44294.74578703703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44595.73182870371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44508</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44816</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44656.51680555556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44264</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44627</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44587</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44434.64474537037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44820.58339120371</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44249</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44552</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44588.61754629629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44879.75467592593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44257</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44875.96684027778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44743</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44368</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>44368.96609953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>44831</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44369</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>44819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44272</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44581</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44630.64725694444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44469</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44476</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44804</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44368</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44369</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44365.70483796296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44601</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44438</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44742</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44462</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44253</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44476</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>44600</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44635.71011574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44425.69079861111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44412</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44697.38225694445</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44468.75822916667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>44533</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44250</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44601</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44678</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44238</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44249</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>44564.47854166666</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44642</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44246</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44704.93234953703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44659.55756944444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44656</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>45258</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>45103</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>45293</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>44362</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44866</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44898</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45009.38880787037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44467.94783564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44368</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44369.24979166667</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44966.74954861111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44677</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44802</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44476</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44595</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44897.571875</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45063</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44672.99238425926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44918.42355324074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>45097</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45735.29673611111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>45086.43366898148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>45260.37900462963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>45021</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>45330</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>45706.64918981482</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>45428.48278935185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44973.5909375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>45107</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>45770.45534722223</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>45567</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45727.61766203704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>45293.64920138889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45428.4608912037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>45206</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>45705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>45555.39886574074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45623.659375</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>45560</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45749.42486111111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         <v>45642.36315972222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45554.27943287037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45740.56240740741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45095</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44960.61972222223</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44914</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44993.61875</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45728.42060185185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45629.40020833333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44778.47692129629</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>45357.58004629629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>45740.35782407408</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45688.46208333333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45720.37665509259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>45593.49458333333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>45084</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45693.47490740741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45253.57049768518</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45233</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45566</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45566</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45441.59644675926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44861</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>45604.48474537037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>45664.4512962963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44900.723125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>45677.65697916667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45095</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44942.70369212963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45702.36035879629</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44383</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>45103.51917824074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44817</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45316.62950231481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>45798</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>45259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>45680.37934027778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45800</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>45096.42487268519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>45800.57334490741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45623.6296875</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45800.58203703703</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>45800</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45572.67354166666</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44508</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44880</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45264.60973379629</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>45681</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>44918.41450231482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>45805.86400462963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45805.8593287037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44974.72851851852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45621.58040509259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45810.67283564815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45888.59415509259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>45008</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45593.48603009259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45719.49388888889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>45720.36722222222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45888.3796875</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45888.44862268519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45891.55048611111</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>45707</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>45812.40525462963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45593.48171296297</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44265</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45890.84398148148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>45812.63094907408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>45147.46668981481</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45740.48041666667</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45812.47408564815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
         <v>45040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45812.3731712963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45894.64597222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>45817.41699074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>45817.44313657407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>45894.34081018518</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>45710</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>45894.68724537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>45554.31143518518</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44897.4424537037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>45895.67457175926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>45337</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>45817.46142361111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44501</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>45560</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>45894.41927083334</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>45897</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45896.45008101852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45898.54694444445</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>45898.56473379629</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>45898.57550925926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44958.93928240741</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45274.65848379629</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45639.4240162037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45744</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45898.56826388889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45819.37645833333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45819.38228009259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45819.47800925926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44816.75416666667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45820.64690972222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45820.66185185185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>45902.63649305556</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>45903.62509259259</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45903.60679398148</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>45903.59841435185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44490.22488425926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44424</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44431</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45415.83293981481</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45903.60240740741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45328.44785879629</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45902.62799768519</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>45903.59527777778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45820.47420138889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45905.32957175926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45905.47065972222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45905.45561342593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>45904.62306712963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>45095</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44950</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45905.33390046296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45905.42600694444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44949.59946759259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45904.58920138889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>45086</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44315</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44860</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>45456.42511574074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>45824.65921296296</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>45908.56493055556</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>45744.38512731482</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>45257.45836805556</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>45824.6362037037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>45824.68121527778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45257.48733796296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>45824.64903935185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45825.65684027778</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45520.56111111111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45103.91359953704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45915.37070601852</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45740.3552199074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>45636.85606481481</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>45826.61688657408</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>45178</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>45058</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45915.38060185185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45002</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28174,7 +28174,7 @@
         <v>44503.48954861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>45125.57719907408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>45831</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>45421.52635416666</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45541.55064814815</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>45257</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45206</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45918.38171296296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45020.87799768519</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45831</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45041</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>44516</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44964.6525925926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44607.28710648148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>45918.37513888889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>45463.79559027778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>45919.83229166667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44993.89005787037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45832.67672453704</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45167</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44767.83041666666</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45924.61219907407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44930</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44957.84447916667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44662</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45463.79037037037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45084.81885416667</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>44732</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29872,7 +29872,7 @@
         <v>45601.78827546296</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29929,7 +29929,7 @@
         <v>45929</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         <v>44914.75953703704</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>45929</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30105,7 +30105,7 @@
         <v>44536</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30162,7 +30162,7 @@
         <v>45918.38497685185</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30219,7 +30219,7 @@
         <v>45631.68104166666</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>45624.58550925926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30333,7 +30333,7 @@
         <v>44734</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30390,7 +30390,7 @@
         <v>45929</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45442</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30504,7 +30504,7 @@
         <v>45835.61672453704</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>45931.39234953704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>45723.47864583333</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>45681.56399305556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44887</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45615</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44252</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>44614</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>45932.68950231482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45468.57454861111</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>45839</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44267</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>45838.66701388889</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44833</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45932.67384259259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>45719.63878472222</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45935.78858796296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45846</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>45604.47024305556</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>45935.81170138889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>45935.79518518518</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45840.56216435185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31967,7 +31967,7 @@
         <v>44817</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>45840.35300925926</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>45840.37001157407</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>45565.32090277778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32210,7 +32210,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32272,7 +32272,7 @@
         <v>44980.33758101852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32329,7 +32329,7 @@
         <v>45118</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>45845</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>45467.48385416667</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>45845.59033564815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44735.48800925926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>45600</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>45944</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>45229.61754629629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>45845.6499537037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44900.72767361111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>45846.37765046296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33043,7 +33043,7 @@
         <v>45103.52680555556</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33100,7 +33100,7 @@
         <v>45082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45846.38990740741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>45343.57483796297</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45082.57385416667</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>45299.38380787037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>45006.8075925926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>45776.7610300926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33519,7 +33519,7 @@
         <v>45379</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33576,7 +33576,7 @@
         <v>45854.89873842592</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33633,7 +33633,7 @@
         <v>45854.89011574074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33690,7 +33690,7 @@
         <v>44840</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         <v>45853.96457175926</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
         <v>45853.9731712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>45853.97888888889</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45853.98606481482</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45040</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45855.89788194445</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>45951.48149305556</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44249</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34218,7 +34218,7 @@
         <v>45855.92417824074</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34275,7 +34275,7 @@
         <v>45523.54790509259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34332,7 +34332,7 @@
         <v>45075.71163194445</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         <v>45617.65668981482</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34451,7 +34451,7 @@
         <v>45950.6440625</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34513,7 +34513,7 @@
         <v>45762.41467592592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45950.82328703703</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>45800</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44725.56457175926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45082.66013888889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>45863</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>45055</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>45688.46846064815</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45250.57002314815</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>45250.59774305556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>45831</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>45952.61621527778</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35232,7 +35232,7 @@
         <v>45952.42783564814</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35294,7 +35294,7 @@
         <v>45709.57898148148</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45952.58421296296</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45749.3371875</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35480,7 +35480,7 @@
         <v>45446.48325231481</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
         <v>45133.57666666667</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45681.64767361111</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>45957.42334490741</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44903.69664351852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45870.4994212963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45955.44307870371</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45548.58607638889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45957.36806712963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>45955.43375</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>45267.45017361111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45922.66182870371</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45008.59934027777</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>45820.62386574074</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36318,7 +36318,7 @@
         <v>44473</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>45870.50287037037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>45344</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>45362</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44634</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36613,7 +36613,7 @@
         <v>45252.50694444445</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36670,7 +36670,7 @@
         <v>45209.00003472222</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>45209</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>45709.58696759259</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>44434</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>45698.48292824074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36970,7 +36970,7 @@
         <v>44433</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         <v>45566.53284722222</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37089,7 +37089,7 @@
         <v>44664</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>45959.48362268518</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44946</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37270,7 +37270,7 @@
         <v>45210</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37332,7 +37332,7 @@
         <v>44944.42813657408</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>45660.58243055556</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>45880.53909722222</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>45009</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37580,7 +37580,7 @@
         <v>45880.65869212963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45880.55628472222</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45247.62015046296</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45960</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45964.44224537037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>44965</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45881.59574074074</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38056,7 +38056,7 @@
         <v>45320.70833333334</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>44419</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>45966.83594907408</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>44613.45770833334</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45735.29822916666</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>45523.55290509259</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44375</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38480,7 +38480,7 @@
         <v>45883.55503472222</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>45883.64872685185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44767.83413194444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>44964.43262731482</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>44759.65983796296</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>45969.36766203704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>45883</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>45258</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>45971.48018518519</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>44617.43332175926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45586.55983796297</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>44315</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>45644.94405092593</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>45883.35074074074</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>45883.35534722222</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39370,7 +39370,7 @@
         <v>45042</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44937.78541666667</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>45621.5675462963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>45709.44688657407</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>45975.24901620371</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>45975.22857638889</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44774</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>45973.8149537037</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>44550.79950231482</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44993.91690972223</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>45095</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>45884.32354166666</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>45855.65826388889</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44564.68190972223</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>45594.30484953704</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40255,7 +40255,7 @@
         <v>45978.73516203704</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40312,7 +40312,7 @@
         <v>45607.76746527778</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40369,7 +40369,7 @@
         <v>45607.77384259259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40426,7 +40426,7 @@
         <v>45609.64965277778</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40488,7 +40488,7 @@
         <v>45665.41304398148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40545,7 +40545,7 @@
         <v>45551.56912037037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40602,7 +40602,7 @@
         <v>44774</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40664,7 +40664,7 @@
         <v>45754.66113425926</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40726,7 +40726,7 @@
         <v>45744.38790509259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40788,7 +40788,7 @@
         <v>45979.77318287037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40845,7 +40845,7 @@
         <v>45980.27319444445</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40902,7 +40902,7 @@
         <v>45980.19660879629</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40959,7 +40959,7 @@
         <v>45013.44790509259</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>45980.2784375</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45980.19018518519</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45688.46606481481</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41197,7 +41197,7 @@
         <v>45428</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41254,7 +41254,7 @@
         <v>45983.49833333334</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41311,7 +41311,7 @@
         <v>45983.50333333333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41368,7 +41368,7 @@
         <v>45983.52783564815</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41425,7 +41425,7 @@
         <v>45744.33431712963</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41487,7 +41487,7 @@
         <v>45604.50295138889</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>45983.50916666666</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>45983.5328125</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>45985</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>46029.67429398148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44420</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>46029.71232638889</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>45986</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>45077</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>45002.7171875</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>46029.59096064815</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42129,7 +42129,7 @@
         <v>45068.539375</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42191,7 +42191,7 @@
         <v>44867.47490740741</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>45754.46591435185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42305,7 +42305,7 @@
         <v>44981</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42367,7 +42367,7 @@
         <v>45986</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>44886.42974537037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>45636.85886574074</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         <v>46031.30131944444</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>46031.31020833334</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42662,7 +42662,7 @@
         <v>46030.59618055556</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>45698.80957175926</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         <v>45728.36512731481</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45280</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45210</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42972,7 +42972,7 @@
         <v>45706.64829861111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         <v>45631.72401620371</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43086,7 +43086,7 @@
         <v>45225.92840277778</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43143,7 +43143,7 @@
         <v>46030.67668981481</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43205,7 +43205,7 @@
         <v>45604.49379629629</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43267,7 +43267,7 @@
         <v>44987</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43324,7 +43324,7 @@
         <v>45082</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>45082.65296296297</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>45566.32579861111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43510,7 +43510,7 @@
         <v>45177</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43567,7 +43567,7 @@
         <v>44995</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43629,7 +43629,7 @@
         <v>46034.43657407408</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
         <v>46034.42305555556</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43753,7 +43753,7 @@
         <v>46034.3640625</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45147</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>44966.73841435185</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>46036.45961805555</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>45230</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>45040</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>45744.48476851852</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>46036.47032407407</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44876</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>45727.40373842593</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44348,7 +44348,7 @@
         <v>45179.86133101852</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>45179</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>45709.38167824074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45309.56436342592</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45309.58428240741</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45309.60451388889</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>44915.58520833333</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>44949.5928587963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45700.3816087963</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44881,7 +44881,7 @@
         <v>45323.61266203703</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44943,7 +44943,7 @@
         <v>45996.51731481482</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45000,7 +45000,7 @@
         <v>46040.41307870371</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45057,7 +45057,7 @@
         <v>45013.45861111111</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45119,7 +45119,7 @@
         <v>44981</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45181,7 +45181,7 @@
         <v>46040.39981481482</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45238,7 +45238,7 @@
         <v>44930</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>45754.63559027778</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45362,7 +45362,7 @@
         <v>45232</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45086.56109953704</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45481,7 +45481,7 @@
         <v>45042.48407407408</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45538,7 +45538,7 @@
         <v>45042.60699074074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>44939</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45652,7 +45652,7 @@
         <v>45607.76170138889</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45709,7 +45709,7 @@
         <v>44732</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45425</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>46000.61194444444</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45177</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45947,7 +45947,7 @@
         <v>45302.47346064815</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45678.64803240741</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46071,7 +46071,7 @@
         <v>45622.59552083333</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>46002.35668981481</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46190,7 +46190,7 @@
         <v>46002</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46247,7 +46247,7 @@
         <v>46044.76925925926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46304,7 +46304,7 @@
         <v>46003</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46361,7 +46361,7 @@
         <v>45237</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46423,7 +46423,7 @@
         <v>46043.90125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>44642.39262731482</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         <v>46002.49240740741</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46604,7 +46604,7 @@
         <v>46043.92414351852</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>46002.37537037037</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45770.59953703704</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45770.60439814815</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>46002.56351851852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46904,7 +46904,7 @@
         <v>45456</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>44749</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47023,7 +47023,7 @@
         <v>45082.64861111111</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>45082.66623842593</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45167</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>46048.63337962963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>44930</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         <v>46048.64240740741</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>44782</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>46049.64528935185</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>46006.59943287037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47556,7 +47556,7 @@
         <v>46048.6265162037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>46006.5815625</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>46006.46712962963</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47742,7 +47742,7 @@
         <v>45646.4853125</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47799,7 +47799,7 @@
         <v>45181.79957175926</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47856,7 +47856,7 @@
         <v>45225.94203703704</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47913,7 +47913,7 @@
         <v>44425</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47970,7 +47970,7 @@
         <v>44754.60368055556</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48027,7 +48027,7 @@
         <v>45421.53177083333</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48089,7 +48089,7 @@
         <v>45551.63465277778</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         <v>46050.38045138889</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>45530.94261574074</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>46050.54965277778</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48327,7 +48327,7 @@
         <v>44986</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48384,7 +48384,7 @@
         <v>44770.56407407407</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48441,7 +48441,7 @@
         <v>45566.5353125</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48503,7 +48503,7 @@
         <v>46055.47086805556</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45301</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48627,7 +48627,7 @@
         <v>45302.48125</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48689,7 +48689,7 @@
         <v>45601.54071759259</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45712.48190972222</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>46052.47861111111</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48865,7 +48865,7 @@
         <v>45698.46657407407</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48927,7 +48927,7 @@
         <v>45370</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48989,7 +48989,7 @@
         <v>44678</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         <v>45853</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49108,7 +49108,7 @@
         <v>44637</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49165,7 +49165,7 @@
         <v>46049</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49222,7 +49222,7 @@
         <v>45279.46747685185</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49284,7 +49284,7 @@
         <v>45609.65366898148</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45070</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>44973</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49470,7 +49470,7 @@
         <v>44891</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49527,7 +49527,7 @@
         <v>45616.28719907408</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49584,7 +49584,7 @@
         <v>46058.61957175926</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49646,7 +49646,7 @@
         <v>46058.61012731482</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49708,7 +49708,7 @@
         <v>46058.61364583333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49770,7 +49770,7 @@
         <v>46058.59472222222</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49832,7 +49832,7 @@
         <v>46058.49981481482</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49894,7 +49894,7 @@
         <v>44949.55903935185</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49951,7 +49951,7 @@
         <v>44368</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50008,7 +50008,7 @@
         <v>45680.36810185185</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>44966.74208333333</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45692.54231481482</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50189,7 +50189,7 @@
         <v>44953</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50251,7 +50251,7 @@
         <v>44823.31814814815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50308,7 +50308,7 @@
         <v>45202.50096064815</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50365,7 +50365,7 @@
         <v>45593.66155092593</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50427,7 +50427,7 @@
         <v>45379.54880787037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50484,7 +50484,7 @@
         <v>45428.45214120371</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         <v>44817</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50608,7 +50608,7 @@
         <v>45174</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50670,7 +50670,7 @@
         <v>45770.46763888889</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50727,7 +50727,7 @@
         <v>45236.37188657407</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50789,7 +50789,7 @@
         <v>45236.37878472222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         <v>45357.56899305555</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50908,7 +50908,7 @@
         <v>45660.57175925926</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50970,7 +50970,7 @@
         <v>45243.44707175926</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45022.59966435185</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51094,7 +51094,7 @@
         <v>44816.75733796296</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51151,7 +51151,7 @@
         <v>45314</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51208,7 +51208,7 @@
         <v>45631.69237268518</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51265,7 +51265,7 @@
         <v>44820.59762731481</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51322,7 +51322,7 @@
         <v>45560</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51384,7 +51384,7 @@
         <v>45535</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45250</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>45197.3700462963</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>44966</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>44806</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>45113.7019212963</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         <v>44964.5900462963</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45723.48126157407</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51865,7 +51865,7 @@
         <v>45420.63292824074</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51922,7 +51922,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51984,7 +51984,7 @@
         <v>45775.6037037037</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52041,7 +52041,7 @@
         <v>45616.27108796296</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52098,7 +52098,7 @@
         <v>45258</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52155,7 +52155,7 @@
         <v>44865</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>44953</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45179</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52326,7 +52326,7 @@
         <v>45617.58458333334</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>44879.75650462963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45713.4383912037</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         <v>45735.67384259259</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>44862</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52631,7 +52631,7 @@
         <v>45560</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>44887</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52750,7 +52750,7 @@
         <v>44887</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45235.45121527778</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45086</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52926,7 +52926,7 @@
         <v>45426.26847222223</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44616</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>45322.49793981481</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53107,7 +53107,7 @@
         <v>45740.48484953704</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>44949</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53221,7 +53221,7 @@
         <v>44995</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>44813</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53345,7 +53345,7 @@
         <v>45142.55728009259</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53402,7 +53402,7 @@
         <v>45715.74398148148</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53459,7 +53459,7 @@
         <v>44653.50954861111</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53516,7 +53516,7 @@
         <v>45560</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>45719.49042824074</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53635,7 +53635,7 @@
         <v>45645.56427083333</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53697,7 +53697,7 @@
         <v>45593.60833333333</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53759,7 +53759,7 @@
         <v>44987.51744212963</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53816,7 +53816,7 @@
         <v>44236</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53873,7 +53873,7 @@
         <v>45555.45396990741</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>45184.53783564815</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>45639.42065972222</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54054,7 +54054,7 @@
         <v>45314</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54111,7 +54111,7 @@
         <v>45447.58180555556</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54173,7 +54173,7 @@
         <v>45447</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         <v>44729</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54292,7 +54292,7 @@
         <v>44844</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54349,7 +54349,7 @@
         <v>44973.41844907407</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54411,7 +54411,7 @@
         <v>45076</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54473,7 +54473,7 @@
         <v>45095</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54530,7 +54530,7 @@
         <v>45639.38752314815</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54592,7 +54592,7 @@
         <v>45070.69009259259</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54654,7 +54654,7 @@
         <v>44526.39090277778</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54711,7 +54711,7 @@
         <v>44922.43804398148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54773,7 +54773,7 @@
         <v>44795</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45260</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54892,7 +54892,7 @@
         <v>44491</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54949,7 +54949,7 @@
         <v>45041</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55011,7 +55011,7 @@
         <v>45257</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55068,7 +55068,7 @@
         <v>44871</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         <v>45391.43108796296</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55182,7 +55182,7 @@
         <v>45692</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55244,7 +55244,7 @@
         <v>45070.58025462963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55306,7 +55306,7 @@
         <v>45202</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55363,7 +55363,7 @@
         <v>44966</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55425,7 +55425,7 @@
         <v>45210</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55487,7 +55487,7 @@
         <v>45323.56947916667</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55549,7 +55549,7 @@
         <v>45341</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55611,7 +55611,7 @@
         <v>44550.79950231482</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55668,7 +55668,7 @@
         <v>45566.43896990741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55730,7 +55730,7 @@
         <v>45566.44668981482</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55792,7 +55792,7 @@
         <v>44476.24972222222</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55849,7 +55849,7 @@
         <v>45441.57834490741</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         <v>45374.71145833333</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55968,7 +55968,7 @@
         <v>45391.42537037037</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56025,7 +56025,7 @@
         <v>44431</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56082,7 +56082,7 @@
         <v>44981</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56144,7 +56144,7 @@
         <v>44679</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56206,7 +56206,7 @@
         <v>45293</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56263,7 +56263,7 @@
         <v>45554.69748842593</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56320,7 +56320,7 @@
         <v>45692.55859953703</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56382,7 +56382,7 @@
         <v>45214</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56439,7 +56439,7 @@
         <v>45110</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>45660.58204861111</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>45735.6669212963</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>45516.5593287037</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44966</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>45078</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56801,7 +56801,7 @@
         <v>45113.58054398148</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56858,7 +56858,7 @@
         <v>45191</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56915,7 +56915,7 @@
         <v>45763.32456018519</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56972,7 +56972,7 @@
         <v>45639.34571759259</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57034,7 +57034,7 @@
         <v>44551</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57091,7 +57091,7 @@
         <v>44833</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44890</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57210,7 +57210,7 @@
         <v>45103.52126157407</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57267,7 +57267,7 @@
         <v>45618.69439814815</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57324,7 +57324,7 @@
         <v>45639.42581018519</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57386,7 +57386,7 @@
         <v>45299</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57443,7 +57443,7 @@
         <v>45301</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57505,7 +57505,7 @@
         <v>45562.40121527778</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57567,7 +57567,7 @@
         <v>44714</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57624,7 +57624,7 @@
         <v>44992.49708333334</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57686,7 +57686,7 @@
         <v>45740.47725694445</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57743,7 +57743,7 @@
         <v>45687.45034722222</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>45705.55550925926</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>45705.55886574074</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44622.47993055556</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>45086.56525462963</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -58043,7 +58043,7 @@
         <v>45232.79605324074</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44887</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>45422</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44622.45858796296</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>45191</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58333,7 +58333,7 @@
         <v>44595</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58390,7 +58390,7 @@
         <v>45516.53788194444</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58447,7 +58447,7 @@
         <v>44589</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58504,7 +58504,7 @@
         <v>45664.45697916667</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58566,7 +58566,7 @@
         <v>45609.65891203703</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>45308.87994212963</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58685,7 +58685,7 @@
         <v>44922.47258101852</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>45615.33805555556</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>45149</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         <v>45572.48486111111</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58928,7 +58928,7 @@
         <v>45560.60784722222</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58990,7 +58990,7 @@
         <v>45762.53134259259</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -59047,7 +59047,7 @@
         <v>45762</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -59104,7 +59104,7 @@
         <v>44817.92298611111</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -59161,7 +59161,7 @@
         <v>44431</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -59218,7 +59218,7 @@
         <v>45149</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         <v>45622.4261574074</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59332,7 +59332,7 @@
         <v>45622.42899305555</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59389,7 +59389,7 @@
         <v>44250</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59451,7 +59451,7 @@
         <v>45447</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59513,7 +59513,7 @@
         <v>45554.2862037037</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59570,7 +59570,7 @@
         <v>45639.34060185185</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59632,7 +59632,7 @@
         <v>45639.34267361111</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59694,7 +59694,7 @@
         <v>45095</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59751,7 +59751,7 @@
         <v>45593.50768518518</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59813,7 +59813,7 @@
         <v>45315.48575231482</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59875,7 +59875,7 @@
         <v>45275.41934027777</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59932,7 +59932,7 @@
         <v>44564</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59989,7 +59989,7 @@
         <v>45744.3828125</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -60051,7 +60051,7 @@
         <v>45407.04653935185</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -60108,7 +60108,7 @@
         <v>45071.47526620371</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -60170,7 +60170,7 @@
         <v>44448</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -60227,7 +60227,7 @@
         <v>45257.43741898148</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -60289,7 +60289,7 @@
         <v>45257</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60346,7 +60346,7 @@
         <v>45770.46248842592</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60403,7 +60403,7 @@
         <v>45566</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60465,7 +60465,7 @@
         <v>45777</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45566</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45566</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60646,7 +60646,7 @@
         <v>45735.69887731481</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60708,7 +60708,7 @@
         <v>45736.38344907408</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60770,7 +60770,7 @@
         <v>45783.564375</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60832,7 +60832,7 @@
         <v>45642.82921296296</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45530.92288194445</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         <v>45530.93302083333</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         <v>45371</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -61065,7 +61065,7 @@
         <v>45727.27097222222</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61122,7 +61122,7 @@
         <v>45267</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -61184,7 +61184,7 @@
         <v>45792.37668981482</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -61246,7 +61246,7 @@
         <v>45797.5658912037</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -61303,7 +61303,7 @@
         <v>45797.60138888889</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -61365,7 +61365,7 @@
         <v>45797</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61427,7 +61427,7 @@
         <v>45796.45342592592</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61489,7 +61489,7 @@
         <v>45797.5184375</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61546,7 +61546,7 @@
         <v>45796.4444212963</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
